--- a/mfa/S_cerevisiae/run_files/Nlim__D_0_22/scGEM_Nlim__D_0_22_completeMFA.xlsx
+++ b/mfa/S_cerevisiae/run_files/Nlim__D_0_22/scGEM_Nlim__D_0_22_completeMFA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Reactions" sheetId="1" state="visible" r:id="rId2"/>
@@ -1055,7 +1055,7 @@
     <t xml:space="preserve">Biomass reaction for S. cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">0.401857 ala__L_c + 0.158768 arg__L_c + 0.190851 asn__L_c + 0.190851 asp__L_c + 0.005758 cys__L_c + 0.318360 gln__L_c + 0.318360 glu__L_c + 0.365661 gly_c + 0.079384 his__L_c + 0.242266 ile__L_c + 0.329465 leu__L_c + 0.270235 lys__L_c + 0.046890 met__L_c + 0.154655 phe__L_c + 0.173576 pro__L_c + 0.219232 ser__L_c + 0.229104 thr__L_c + 0.026736 trp__L_c + 0.080618 tyr__L_c + 0.301496 val__L_c + 0.624236 mannan_c + 0.968679 13BDglucan_c + 0.254916 16BDglucan_c + 0.022902 chtn_c + 0.467014 glycogen_c + 0.023409 tre_c + 0.002827 ergstest_c + 0.011040 ergst_c + 0.002870 pail_c + 0.010708 pc_c + 0.002878 pe_c + 0.002471 ps_c + 0.002848 tag_c + 0.001597 ipcbiom_c + 0.000615 ffabiom_c + 0.053420 ctp_c + 0.054974 gtp_c + 0.071585 utp_c + 0.003717 datp_c + 0.002509 dctp_c + 0.002509 dgtp_c + 0.003717 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 102.343951 atp_c + 94.080731 h2o_c --&gt; 4.104123 amp_c + 98.184854 adp_c + 98.184854 h_c + 98.079199 pi_c + 4.351529 ppi_c</t>
+    <t xml:space="preserve">0.401857 ala__L_c + 0.158768 arg__L_c + 0.190851 asn__L_c + 0.190851 asp__L_c + 0.005758 cys__L_c + 0.318360 gln__L_c + 0.318360 glu__L_c + 0.365661 gly_c + 0.079384 his__L_c + 0.242266 ile__L_c + 0.329465 leu__L_c + 0.270235 lys__L_c + 0.046890 met__L_c + 0.154655 phe__L_c + 0.173576 pro__L_c + 0.219232 ser__L_c + 0.229104 thr__L_c + 0.026736 trp__L_c + 0.080618 tyr__L_c + 0.301496 val__L_c + 0.624236 mannan_c + 0.968679 13BDglucan_c + 0.254916 16BDglucan_c + 0.022902 chtn_c + 0.467014 glycogen_c + 0.023409 tre_c + 0.002827 ergstest_c + 0.011040 ergst_c + 0.002870 pail_c + 0.010708 pc_c + 0.002878 pe_c + 0.002471 ps_c + 0.002848 tag_c + 0.001597 ipcbiom_c + 0.000615 ffabiom_c + 0.053420 ctp_c + 0.054974 gtp_c + 0.071585 utp_c + 0.003717 datp_c + 0.002509 dctp_c + 0.002509 dgtp_c + 0.003717 dttp_c + 0.001286 ca2_c + 0.000114 cu2_c + 0.000664 fe2_c + 0.603650 k_c + 0.063607 mg2_c + 0.000094 mn2_c + 0.001576 zn2_c + 0.031223 so4_c + 143.622039 atp_c + 135.358819 h2o_c --&gt; 4.104123 amp_c + 139.462942 adp_c + 139.462942 h_c + 139.357287 pi_c + 4.351529 ppi_c</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoreaction</t>
@@ -14867,10 +14867,10 @@
   </sheetPr>
   <dimension ref="A1:N591"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A591" activeCellId="0" sqref="A591"/>
+      <selection pane="bottomLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34215,7 +34215,7 @@
   </sheetPr>
   <dimension ref="A1:L494"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A494" activeCellId="0" sqref="A494"/>
